--- a/Symal/27264/res_INF-HSEQ CC0375-ITP-014 Piles with Checklist Rev.4.xlsx
+++ b/Symal/27264/res_INF-HSEQ CC0375-ITP-014 Piles with Checklist Rev.4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Symal\27264\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C39DCE-91DC-4096-BC71-78B0D60A53B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4043BC49-0848-41C7-B81E-F0CDF12A5091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2280" windowWidth="28965" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9270" yWindow="2205" windowWidth="28965" windowHeight="18720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="138">
   <si>
     <t>type</t>
   </si>
@@ -67,87 +67,18 @@
     <t>checklist</t>
   </si>
   <si>
-    <t xml:space="preserve">Ref docs - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acceptance Criteria - </t>
-  </si>
-  <si>
     <t>section</t>
   </si>
   <si>
     <t>1.0 Preliminaries</t>
   </si>
   <si>
-    <t xml:space="preserve">Key - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">UGL Key - </t>
-  </si>
-  <si>
     <t>checkpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SHL Key - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.6 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.7 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.8 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9 - </t>
-  </si>
-  <si>
     <t>5.0 Conformance check</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.2 - </t>
-  </si>
-  <si>
     <t>INF-HSEQ CC0375-ITP-014 Piles with Checklist Rev.4</t>
   </si>
   <si>
@@ -157,13 +88,352 @@
     <t>3.0 Piling</t>
   </si>
   <si>
-    <t xml:space="preserve">3.10 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.11 - </t>
-  </si>
-  <si>
     <t>4.0 Integrity Testing - Dynamic</t>
+  </si>
+  <si>
+    <t>1.1 - Documentation</t>
+  </si>
+  <si>
+    <t>Ref docs - Issued drawings / Site copy drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Check that you have the latest site and engineering drawings BEFORE starting each task/set of tasks.</t>
+  </si>
+  <si>
+    <t>Key - S</t>
+  </si>
+  <si>
+    <t>UGL Key - S</t>
+  </si>
+  <si>
+    <t>1.2 - Determine lot size</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Lots to be broken up accordingly and outlined on a lot map</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>Lot map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks / record (eg. test frequency, reports, certificates, checklist etc) - </t>
+  </si>
+  <si>
+    <t>1.3 - Geotechnical Engineer</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0003 Piling [Cl 2.7.1]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Proposed Geotechnical Engineer holds correct qualifications and Experience.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">○ 5+ Years Geotechnical Experience including CFA Pile installation </t>
+  </si>
+  <si>
+    <t>2.1 - Boring machine</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Details of the boring machine and any other tools that may be required shall be provided for approval by the Superintendent</t>
+  </si>
+  <si>
+    <t>HOLD POINT</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0003 Piling [Cl 3.3.2]</t>
+  </si>
+  <si>
+    <t>Key - H</t>
+  </si>
+  <si>
+    <t>UGL Key - H</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
+  </si>
+  <si>
+    <t>AUTHORITY HOLDPOINT</t>
+  </si>
+  <si>
+    <t>Plant documents</t>
+  </si>
+  <si>
+    <t>2.2 - Approval of Concrete Mix Design</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0003 Piling [Cl 3.1.2]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Concrete Mix Code: S40/10/220 – Special Mix</t>
+  </si>
+  <si>
+    <t>○ Strength: 40MPa</t>
+  </si>
+  <si>
+    <t>○ Agg Size: not greater than 18mm</t>
+  </si>
+  <si>
+    <t>○ Slump: not greater than 220mm</t>
+  </si>
+  <si>
+    <t>○ Required to achieve 25MPa @ 7 Days</t>
+  </si>
+  <si>
+    <t>Mix design</t>
+  </si>
+  <si>
+    <t>2.3 - Pile Cage &amp; Spacers</t>
+  </si>
+  <si>
+    <t>Ref docs - Drawings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria - Certificate of Compliance for Pile Cage </t>
+  </si>
+  <si>
+    <t>○ Cage Manufactured as per approved IFC Drawings and welding to approved weld procedure LOR-CJAUTO-12/20-250/500-1</t>
+  </si>
+  <si>
+    <t>○ Site splice weld as required IAW approved weld procedure WPS-CSS-014</t>
+  </si>
+  <si>
+    <t>Material certificates and COC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site Daily Weld Repot  </t>
+  </si>
+  <si>
+    <t>3.1 - Survey Setout</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0003 Piling [3.10], Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - A registered surveyor shall be used to accurately located all pile locations as shown on the drawings and specifications.</t>
+  </si>
+  <si>
+    <t>Survey Report</t>
+  </si>
+  <si>
+    <t>3.2 - Concrete lines primed and in good order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref docs - Wagstaff WP-MS-09.3.07 [ Cl 6.2.1]  </t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Inspect concrete liners have no damage and are primed correctly.</t>
+  </si>
+  <si>
+    <t>3.3 - Excavation of bore hole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref docs - Spec. 0003 Piling [Cl 3.3], Drawings </t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Verify: (via Pile Rig)</t>
+  </si>
+  <si>
+    <t>– Depth: Refer to drawings for min. depth into socket material</t>
+  </si>
+  <si>
+    <t>– Diameter: 900mm</t>
+  </si>
+  <si>
+    <t>– Inclination. +/- 4%</t>
+  </si>
+  <si>
+    <t>– The tolerances on the level of the bottom of the piles shall be +0, -100mm from the RL nominated on the drawings or as directed by the Superintendent</t>
+  </si>
+  <si>
+    <t>– Length of pile/pile liner shall not be less than total length shown on drawings</t>
+  </si>
+  <si>
+    <t>SHL Key - W</t>
+  </si>
+  <si>
+    <t>Pile Log Sheets</t>
+  </si>
+  <si>
+    <t>3.4 - Excavation conformance</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Check dimensions and cover are within tolerance refer to below conformance check section for details. Correct toe level as per plan. Material encountered consistent with design. Softened soil shall be removed from the bottom of the drill holes.</t>
+  </si>
+  <si>
+    <t>3.5 - Examination of borehole</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0003 Piling [Cl 3.4]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Boreholes excavations shall be inspected as the work proceeds. When the founding level as shown on the drawings or as otherwise directed has been reached, each hole will be subject to a visual examination (or other methods of examination) by a Geotechnical Engineer appointed by the superintendent.</t>
+  </si>
+  <si>
+    <t>○ The Geotechnical Engineer will advise whether a satisfactory founding level exist or whether further excavation is required.</t>
+  </si>
+  <si>
+    <t>Geotechnical Engineer Sign Off Sheets</t>
+  </si>
+  <si>
+    <t>3.6 - Concrete supply</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0003 Piling [3.9]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acceptance Criteria - Verify: </t>
+  </si>
+  <si>
+    <t>Concrete mix</t>
+  </si>
+  <si>
+    <t>A concrete delivery docket to be supplied with each batch delivered.</t>
+  </si>
+  <si>
+    <t>○ 65 MPa 10mm 220mm TREMMIE [N876626]</t>
+  </si>
+  <si>
+    <t>○ 40 MPa 10mm 220mm TREMMIE [N545526]</t>
+  </si>
+  <si>
+    <t>UGL Key - W</t>
+  </si>
+  <si>
+    <t>Material dockets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concrete Pour Records </t>
+  </si>
+  <si>
+    <t>3.7 - Concrete Sampling</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0003 Piling [3.9] Spec  0002 Concrete Supply, Construction and Grouting [10.2.3]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - The nominal rate of sampling shall be taken after the concrete has been discharged at site prior to handling:</t>
+  </si>
+  <si>
+    <t>(b) Slump: One per batch of concrete</t>
+  </si>
+  <si>
+    <t>(a) Compressive strength (1 x 7 day and 2 x 28 day cylinders): One set per pour or as otherwise directed by Superintendent;</t>
+  </si>
+  <si>
+    <t>○ Acceptance Testing shall be done at a NATA registered laboratory</t>
+  </si>
+  <si>
+    <t>3.8 - Concrete Placement</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria -  All concrete shall be placed continuously and in the dry so as to ensure the exclusion of all harmful materials and provide a well-formed dense unit of full cross-section without voids or segregation.</t>
+  </si>
+  <si>
+    <t>Notice: 1 working day prior to placing concrete for test pile</t>
+  </si>
+  <si>
+    <t>WITNESS POINT</t>
+  </si>
+  <si>
+    <t>○ All concrete shall be placed by approved methods to limit free fall of concrete to a maximum of 3.0m</t>
+  </si>
+  <si>
+    <t>○ Top of 3m of concrete shall be well compacted with a high-capacity vibrator with a min. diameter of 50mm</t>
+  </si>
+  <si>
+    <t>3.9 - Concrete testing</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Concrete test reports achieve design requirements</t>
+  </si>
+  <si>
+    <t>SHL Key - R</t>
+  </si>
+  <si>
+    <t>Test reports</t>
+  </si>
+  <si>
+    <t>3.10 - Placement of reinforcement cage.</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0003 Piling [Cl. 3.2.2, 3.8], Drawings</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Ensure that cage is clean and straight. Plunge the cage centrally to pile hole and ensure spacers are attached at correct locations.</t>
+  </si>
+  <si>
+    <t>Notice: 1 working day prior to installation of each pile</t>
+  </si>
+  <si>
+    <t>○ Reinforcement cages and embedment to conform with drawings and specification.</t>
+  </si>
+  <si>
+    <t>3.11 - Concrete RL and depth</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Bored piers depth, size, position and concrete RL as per the Piling Pile Log Sheet and Drawings.</t>
+  </si>
+  <si>
+    <t>4.1 - Pile Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ref docs - AS 2159:2009, Spec. 0003 Piling [Cl 3.13 (5)], WP-MS-09.3.30 Low Strain Dynamic Testing </t>
+  </si>
+  <si>
+    <t>Notice – 3 working days to commence testing</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Minimum 5% sample size</t>
+  </si>
+  <si>
+    <t>○ Pile Integrity testing (PIT) as per Wagstaff Procedure WP-MS-09.3.30 Low Strain Dynamic Testing.</t>
+  </si>
+  <si>
+    <t>Integrity Test Reports</t>
+  </si>
+  <si>
+    <t>5.1 - Survey</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0003 Piling [3.10]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - All piles shall be constructed within the tolerance specified below:</t>
+  </si>
+  <si>
+    <t>– The centreline at the top of the piles shall be within 50mm of the specified position</t>
+  </si>
+  <si>
+    <t>– The inclination of the pile shaft shall be within ± 4% of the nominated inclination</t>
+  </si>
+  <si>
+    <t>– The tolerance on the level of the top of the piles shall be ± 10mm</t>
+  </si>
+  <si>
+    <t>– Piles shall be constructed to the minimum diameters specified on the drawings</t>
+  </si>
+  <si>
+    <t>– Maximum bow of pile shall be 0.1% of length</t>
+  </si>
+  <si>
+    <t>– The projection of the pile cage bars above the cut-off shall be ± 25mm from the nominated level</t>
+  </si>
+  <si>
+    <t>SHL Key - H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As-Built Surveys </t>
+  </si>
+  <si>
+    <t>5.2 - Acceptance and closure of non-conforming items</t>
+  </si>
+  <si>
+    <t>Ref docs - Spec. 0161 Quality [CL 3.8]</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - NCRs to be opened for non-conforming items and closed prior to closing construction lot.</t>
   </si>
 </sst>
 </file>
@@ -306,7 +576,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -506,6 +776,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,7 +946,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -685,6 +961,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="37" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1042,10 +1324,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I147"/>
+  <dimension ref="A1:I217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="A217" sqref="A217:B217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1372,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -1102,24 +1384,24 @@
         <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1127,7 +1409,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1135,7 +1417,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1154,7 +1436,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1162,31 +1444,34 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>34</v>
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>24</v>
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>15</v>
+      <c r="A12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1194,18 +1479,15 @@
         <v>13</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>12</v>
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1213,31 +1495,31 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="A17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1245,7 +1527,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1253,7 +1535,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1272,7 +1554,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1280,31 +1562,31 @@
         <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>43</v>
+      <c r="B25" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1312,7 +1594,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1320,7 +1602,7 @@
         <v>13</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1339,7 +1621,7 @@
         <v>13</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1347,7 +1629,7 @@
         <v>13</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1355,42 +1637,39 @@
         <v>13</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>26</v>
+      <c r="A33" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>15</v>
+      <c r="A34" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>16</v>
+      <c r="A35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>12</v>
+      <c r="A36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1398,7 +1677,7 @@
         <v>13</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1406,7 +1685,7 @@
         <v>13</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1414,15 +1693,15 @@
         <v>13</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>27</v>
+      <c r="A40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1430,7 +1709,7 @@
         <v>13</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1438,7 +1717,7 @@
         <v>13</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1457,7 +1736,7 @@
         <v>13</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1465,7 +1744,7 @@
         <v>13</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1473,31 +1752,31 @@
         <v>13</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>15</v>
+      <c r="B49" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1505,18 +1784,15 @@
         <v>13</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>12</v>
+      <c r="A51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1524,7 +1800,7 @@
         <v>13</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1532,7 +1808,7 @@
         <v>13</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1540,15 +1816,18 @@
         <v>13</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>32</v>
+      <c r="A55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1556,7 +1835,7 @@
         <v>13</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1564,58 +1843,55 @@
         <v>13</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>12</v>
+      <c r="A58" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>34</v>
+      <c r="A61" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>15</v>
+      <c r="A63" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1623,26 +1899,26 @@
         <v>13</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B66" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1650,7 +1926,7 @@
         <v>13</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1658,42 +1934,39 @@
         <v>13</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>30</v>
+      <c r="A69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>16</v>
+      <c r="A71" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>12</v>
+      <c r="A72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1701,15 +1974,18 @@
         <v>13</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>20</v>
+      <c r="A74" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1717,23 +1993,23 @@
         <v>13</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>29</v>
+      <c r="A76" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>15</v>
+      <c r="A77" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1741,18 +2017,15 @@
         <v>13</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>12</v>
+      <c r="A79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1760,7 +2033,7 @@
         <v>13</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1768,7 +2041,7 @@
         <v>13</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1776,15 +2049,15 @@
         <v>13</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>35</v>
+      <c r="A83" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1792,26 +2065,26 @@
         <v>13</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>16</v>
+      <c r="A85" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>12</v>
+      <c r="A86" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1819,7 +2092,7 @@
         <v>13</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1827,7 +2100,7 @@
         <v>13</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1835,23 +2108,23 @@
         <v>13</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>36</v>
+      <c r="A90" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>15</v>
+      <c r="A91" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1859,26 +2132,26 @@
         <v>13</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B94" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C94" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1886,7 +2159,7 @@
         <v>13</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1894,42 +2167,39 @@
         <v>13</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>37</v>
+      <c r="A97" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>16</v>
+      <c r="A99" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>12</v>
+      <c r="A100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1937,7 +2207,7 @@
         <v>13</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1945,7 +2215,7 @@
         <v>13</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1953,15 +2223,18 @@
         <v>13</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>38</v>
+      <c r="A104" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1969,7 +2242,7 @@
         <v>13</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1977,50 +2250,47 @@
         <v>13</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>12</v>
+      <c r="A107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>19</v>
+        <v>84</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>34</v>
+      <c r="A110" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2028,7 +2298,7 @@
         <v>13</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2036,18 +2306,15 @@
         <v>13</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>12</v>
+      <c r="A114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2055,7 +2322,7 @@
         <v>13</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2063,7 +2330,7 @@
         <v>13</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2071,15 +2338,18 @@
         <v>13</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>46</v>
+      <c r="A118" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2087,7 +2357,7 @@
         <v>13</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2095,58 +2365,55 @@
         <v>13</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>12</v>
+      <c r="A121" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>34</v>
+      <c r="A124" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>47</v>
+      <c r="A125" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>33</v>
+      <c r="A126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -2154,7 +2421,7 @@
         <v>13</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -2162,26 +2429,26 @@
         <v>13</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B130" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C130" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2189,7 +2456,7 @@
         <v>13</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2197,23 +2464,23 @@
         <v>13</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B133" s="3" t="s">
-        <v>39</v>
+      <c r="B133" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>40</v>
+      <c r="A134" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -2221,7 +2488,7 @@
         <v>13</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2229,18 +2496,15 @@
         <v>13</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B137" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>12</v>
+      <c r="A137" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2248,7 +2512,7 @@
         <v>13</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2256,23 +2520,26 @@
         <v>13</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>34</v>
+      <c r="A140" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>41</v>
+      <c r="A141" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2280,7 +2547,7 @@
         <v>13</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>15</v>
+        <v>92</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2288,42 +2555,617 @@
         <v>13</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="5" t="s">
+      <c r="A144" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="B149" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C149" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>34</v>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C170" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B202" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C202" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B213" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
